--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Auto_CD004</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">.5</t>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
     <t xml:space="preserve">new_entry</t>
@@ -416,7 +416,7 @@
   <dimension ref="A1:BP1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391E8B1-A682-4DD6-93A8-14436BB00221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE8263E-B272-49F1-9D53-C5C88F8F91D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE8263E-B272-49F1-9D53-C5C88F8F91D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BE721-220B-42E1-9612-A0695A812533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300BE721-220B-42E1-9612-A0695A812533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E0007-253C-4700-BBF5-4AFEB9FF88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>contractNo</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
   <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +957,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>70</v>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6E0007-253C-4700-BBF5-4AFEB9FF88D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701708B-8E12-45A8-8ED0-931BC373474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -951,13 +951,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>70</v>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C8FE0-5DBA-4D62-985C-AF4C5FD0E51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E084CD-6B7F-44BA-879D-BB6D2B7576CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -297,7 +297,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E084CD-6B7F-44BA-879D-BB6D2B7576CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33465B75-119A-4077-A753-FC8BCA7AF41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5C5908-39DF-481B-AEA4-26B86547AD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B8E81-DF67-4A5A-9394-65E26ED87CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>new_entry</t>
   </si>
   <si>
@@ -297,7 +294,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,7 +668,7 @@
   <dimension ref="A1:BS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,37 +957,37 @@
         <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>69</v>
@@ -999,61 +999,61 @@
         <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AJ2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B8E81-DF67-4A5A-9394-65E26ED87CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111C41A-11AC-4E21-9D0D-FC03E1394009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>contractNo</t>
   </si>
@@ -297,7 +297,13 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -667,8 +673,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2:BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +957,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -1051,6 +1057,12 @@
       </c>
       <c r="BC2" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>87</v>

--- a/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 2/Auto_GeStamp_TSCD_TC2_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111C41A-11AC-4E21-9D0D-FC03E1394009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A21846-4BDF-4FF7-8BD1-FC0B485EE863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
